--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb2-Grm5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb2-Grm5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H2">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I2">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J2">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,27 +564,27 @@
         <v>0.012034</v>
       </c>
       <c r="O2">
-        <v>0.863209238935514</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.8920681986656782</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1665489795346666</v>
+        <v>0.1180132662133333</v>
       </c>
       <c r="R2">
-        <v>1.498940815812</v>
+        <v>1.06211939592</v>
       </c>
       <c r="S2">
-        <v>0.6305842137808447</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="T2">
-        <v>0.6806967688562034</v>
+        <v>0.66829493802317</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.519606</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H3">
-        <v>124.558818</v>
+        <v>21.551639</v>
       </c>
       <c r="I3">
-        <v>0.7305114279806179</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J3">
-        <v>0.7630546295388221</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,33 +620,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.0001846666666666667</v>
+        <v>0.004011333333333333</v>
       </c>
       <c r="N3">
-        <v>0.000554</v>
+        <v>0.012034</v>
       </c>
       <c r="O3">
-        <v>0.03973889964851876</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.04106745737583395</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.007667287241333333</v>
+        <v>0.02881693596955555</v>
       </c>
       <c r="R3">
-        <v>0.06900558517199999</v>
+        <v>0.259352423726</v>
       </c>
       <c r="S3">
-        <v>0.02902972032861791</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="T3">
-        <v>0.03133671347401834</v>
+        <v>0.1631868437822795</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.519606</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H4">
-        <v>124.558818</v>
+        <v>1.161929</v>
       </c>
       <c r="I4">
-        <v>0.7305114279806179</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J4">
-        <v>0.7630546295388221</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.000451</v>
+        <v>0.004011333333333333</v>
       </c>
       <c r="N4">
-        <v>0.0009019999999999999</v>
+        <v>0.012034</v>
       </c>
       <c r="O4">
-        <v>0.09705186141596729</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.06686434395848777</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.018725342306</v>
+        <v>0.001553628176222222</v>
       </c>
       <c r="R4">
-        <v>0.112352053836</v>
+        <v>0.013982653586</v>
       </c>
       <c r="S4">
-        <v>0.07089749387115529</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="T4">
-        <v>0.05102114720860026</v>
+        <v>0.008798009571759262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,22 +720,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.183879666666667</v>
+        <v>10.122265</v>
       </c>
       <c r="H5">
-        <v>21.551639</v>
+        <v>20.24453</v>
       </c>
       <c r="I5">
-        <v>0.1263958572665066</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J5">
-        <v>0.1320266053993819</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -750,27 +750,27 @@
         <v>0.012034</v>
       </c>
       <c r="O5">
-        <v>0.863209238935514</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.8920681986656782</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.02881693596955555</v>
+        <v>0.04060377900333333</v>
       </c>
       <c r="R5">
-        <v>0.259352423726</v>
+        <v>0.24362267402</v>
       </c>
       <c r="S5">
-        <v>0.109106071755623</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="T5">
-        <v>0.117776736054571</v>
+        <v>0.153289545846405</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.183879666666667</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H6">
-        <v>21.551639</v>
+        <v>0.84928</v>
       </c>
       <c r="I6">
-        <v>0.1263958572665066</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J6">
-        <v>0.1320266053993819</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,648 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.0001846666666666667</v>
+        <v>0.004011333333333333</v>
       </c>
       <c r="N6">
-        <v>0.000554</v>
+        <v>0.012034</v>
       </c>
       <c r="O6">
-        <v>0.03973889964851876</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.04106745737583395</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.001326623111777778</v>
+        <v>0.001135581724444444</v>
       </c>
       <c r="R6">
-        <v>0.011939608006</v>
+        <v>0.01022023552</v>
       </c>
       <c r="S6">
-        <v>0.005022832287902208</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="T6">
-        <v>0.005421996989715166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>7.183879666666667</v>
-      </c>
-      <c r="H7">
-        <v>21.551639</v>
-      </c>
-      <c r="I7">
-        <v>0.1263958572665066</v>
-      </c>
-      <c r="J7">
-        <v>0.1320266053993819</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.5</v>
-      </c>
-      <c r="M7">
-        <v>0.000451</v>
-      </c>
-      <c r="N7">
-        <v>0.0009019999999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.09705186141596729</v>
-      </c>
-      <c r="P7">
-        <v>0.06686434395848777</v>
-      </c>
-      <c r="Q7">
-        <v>0.003239929729666666</v>
-      </c>
-      <c r="R7">
-        <v>0.019439578378</v>
-      </c>
-      <c r="S7">
-        <v>0.01226695322298138</v>
-      </c>
-      <c r="T7">
-        <v>0.008827872355095813</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.229894</v>
-      </c>
-      <c r="H8">
-        <v>0.6896819999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.004044840748830231</v>
-      </c>
-      <c r="J8">
-        <v>0.004225032410066655</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.004011333333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.012034</v>
-      </c>
-      <c r="O8">
-        <v>0.863209238935514</v>
-      </c>
-      <c r="P8">
-        <v>0.8920681986656782</v>
-      </c>
-      <c r="Q8">
-        <v>0.0009221814653333331</v>
-      </c>
-      <c r="R8">
-        <v>0.008299633187999998</v>
-      </c>
-      <c r="S8">
-        <v>0.003491543904413098</v>
-      </c>
-      <c r="T8">
-        <v>0.00376901705135227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.229894</v>
-      </c>
-      <c r="H9">
-        <v>0.6896819999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.004044840748830231</v>
-      </c>
-      <c r="J9">
-        <v>0.004225032410066655</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.0001846666666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.000554</v>
-      </c>
-      <c r="O9">
-        <v>0.03973889964851876</v>
-      </c>
-      <c r="P9">
-        <v>0.04106745737583395</v>
-      </c>
-      <c r="Q9">
-        <v>4.245375866666666E-05</v>
-      </c>
-      <c r="R9">
-        <v>0.000382083828</v>
-      </c>
-      <c r="S9">
-        <v>0.000160737520612004</v>
-      </c>
-      <c r="T9">
-        <v>0.0001735113384119293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.229894</v>
-      </c>
-      <c r="H10">
-        <v>0.6896819999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.004044840748830231</v>
-      </c>
-      <c r="J10">
-        <v>0.004225032410066655</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.5</v>
-      </c>
-      <c r="M10">
-        <v>0.000451</v>
-      </c>
-      <c r="N10">
-        <v>0.0009019999999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.09705186141596729</v>
-      </c>
-      <c r="P10">
-        <v>0.06686434395848777</v>
-      </c>
-      <c r="Q10">
-        <v>0.000103682194</v>
-      </c>
-      <c r="R10">
-        <v>0.0006220931639999999</v>
-      </c>
-      <c r="S10">
-        <v>0.0003925593238051289</v>
-      </c>
-      <c r="T10">
-        <v>0.0002825040203024553</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>7.2719705</v>
-      </c>
-      <c r="H11">
-        <v>14.543941</v>
-      </c>
-      <c r="I11">
-        <v>0.1279457602316344</v>
-      </c>
-      <c r="J11">
-        <v>0.08909703616318426</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.004011333333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.012034</v>
-      </c>
-      <c r="O11">
-        <v>0.863209238935514</v>
-      </c>
-      <c r="P11">
-        <v>0.8920681986656782</v>
-      </c>
-      <c r="Q11">
-        <v>0.02917029766566667</v>
-      </c>
-      <c r="R11">
-        <v>0.175021785994</v>
-      </c>
-      <c r="S11">
-        <v>0.1104439623145749</v>
-      </c>
-      <c r="T11">
-        <v>0.07948063255654257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>7.2719705</v>
-      </c>
-      <c r="H12">
-        <v>14.543941</v>
-      </c>
-      <c r="I12">
-        <v>0.1279457602316344</v>
-      </c>
-      <c r="J12">
-        <v>0.08909703616318426</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.0001846666666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.000554</v>
-      </c>
-      <c r="O12">
-        <v>0.03973889964851876</v>
-      </c>
-      <c r="P12">
-        <v>0.04106745737583395</v>
-      </c>
-      <c r="Q12">
-        <v>0.001342890552333333</v>
-      </c>
-      <c r="R12">
-        <v>0.008057343314000001</v>
-      </c>
-      <c r="S12">
-        <v>0.005084423726298361</v>
-      </c>
-      <c r="T12">
-        <v>0.003658988734944706</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>7.2719705</v>
-      </c>
-      <c r="H13">
-        <v>14.543941</v>
-      </c>
-      <c r="I13">
-        <v>0.1279457602316344</v>
-      </c>
-      <c r="J13">
-        <v>0.08909703616318426</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.5</v>
-      </c>
-      <c r="M13">
-        <v>0.000451</v>
-      </c>
-      <c r="N13">
-        <v>0.0009019999999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.09705186141596729</v>
-      </c>
-      <c r="P13">
-        <v>0.06686434395848777</v>
-      </c>
-      <c r="Q13">
-        <v>0.0032796586955</v>
-      </c>
-      <c r="R13">
-        <v>0.013118634782</v>
-      </c>
-      <c r="S13">
-        <v>0.01241737419076116</v>
-      </c>
-      <c r="T13">
-        <v>0.005957414871696976</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.6310036666666666</v>
-      </c>
-      <c r="H14">
-        <v>1.893011</v>
-      </c>
-      <c r="I14">
-        <v>0.01110211377241086</v>
-      </c>
-      <c r="J14">
-        <v>0.011596696488545</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.004011333333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.012034</v>
-      </c>
-      <c r="O14">
-        <v>0.863209238935514</v>
-      </c>
-      <c r="P14">
-        <v>0.8920681986656782</v>
-      </c>
-      <c r="Q14">
-        <v>0.002531166041555555</v>
-      </c>
-      <c r="R14">
-        <v>0.022780494374</v>
-      </c>
-      <c r="S14">
-        <v>0.009583447180058265</v>
-      </c>
-      <c r="T14">
-        <v>0.01034504414700893</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.6310036666666666</v>
-      </c>
-      <c r="H15">
-        <v>1.893011</v>
-      </c>
-      <c r="I15">
-        <v>0.01110211377241086</v>
-      </c>
-      <c r="J15">
-        <v>0.011596696488545</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.0001846666666666667</v>
-      </c>
-      <c r="N15">
-        <v>0.000554</v>
-      </c>
-      <c r="O15">
-        <v>0.03973889964851876</v>
-      </c>
-      <c r="P15">
-        <v>0.04106745737583395</v>
-      </c>
-      <c r="Q15">
-        <v>0.0001165253437777778</v>
-      </c>
-      <c r="R15">
-        <v>0.001048728094</v>
-      </c>
-      <c r="S15">
-        <v>0.0004411857850882731</v>
-      </c>
-      <c r="T15">
-        <v>0.0004762468387438049</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.6310036666666666</v>
-      </c>
-      <c r="H16">
-        <v>1.893011</v>
-      </c>
-      <c r="I16">
-        <v>0.01110211377241086</v>
-      </c>
-      <c r="J16">
-        <v>0.011596696488545</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.5</v>
-      </c>
-      <c r="M16">
-        <v>0.000451</v>
-      </c>
-      <c r="N16">
-        <v>0.0009019999999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.09705186141596729</v>
-      </c>
-      <c r="P16">
-        <v>0.06686434395848777</v>
-      </c>
-      <c r="Q16">
-        <v>0.0002845826536666666</v>
-      </c>
-      <c r="R16">
-        <v>0.001707495922</v>
-      </c>
-      <c r="S16">
-        <v>0.00107748080726432</v>
-      </c>
-      <c r="T16">
-        <v>0.0007754055027922599</v>
+        <v>0.006430662776386256</v>
       </c>
     </row>
   </sheetData>
